--- a/excel2sbol/tests/test_files/test_version7_flapjack_compiler_sbol3_v0019.xlsx
+++ b/excel2sbol/tests/test_files/test_version7_flapjack_compiler_sbol3_v0019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="742" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="25" r:id="rId1"/>
@@ -858,6 +858,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -866,10 +870,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -877,6 +877,1058 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="86">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -894,1058 +1946,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I14" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I14" totalsRowShown="0" headerRowDxfId="82">
   <autoFilter ref="A10:I14"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Sheet Name"/>
@@ -2009,25 +2009,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:P21" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:P21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:P21"/>
   <tableColumns count="16">
-    <tableColumn id="16" name="Sheet Name" dataDxfId="30"/>
-    <tableColumn id="1" name="Column Name" dataDxfId="29"/>
+    <tableColumn id="16" name="Sheet Name" dataDxfId="29"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="28"/>
     <tableColumn id="2" name="SBOL Term"/>
-    <tableColumn id="3" name="Namespace URL" dataDxfId="28"/>
-    <tableColumn id="17" name="Type" dataDxfId="27" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Namespace URL" dataDxfId="27"/>
+    <tableColumn id="17" name="Type" dataDxfId="26" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" name="Split On"/>
     <tableColumn id="6" name="Pattern"/>
-    <tableColumn id="7" name="Tyto Lookup" dataDxfId="26"/>
-    <tableColumn id="8" name="Sheet Lookup" dataDxfId="25"/>
-    <tableColumn id="9" name="Replacement Lookup" dataDxfId="24"/>
-    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="23"/>
-    <tableColumn id="11" name="Parent Lookup" dataDxfId="22"/>
-    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="21"/>
-    <tableColumn id="13" name="From Col" dataDxfId="20"/>
-    <tableColumn id="14" name="To Col" dataDxfId="19"/>
-    <tableColumn id="15" name="Ontology Name" dataDxfId="18"/>
+    <tableColumn id="7" name="Tyto Lookup" dataDxfId="25"/>
+    <tableColumn id="8" name="Sheet Lookup" dataDxfId="24"/>
+    <tableColumn id="9" name="Replacement Lookup" dataDxfId="23"/>
+    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="22"/>
+    <tableColumn id="11" name="Parent Lookup" dataDxfId="21"/>
+    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="20"/>
+    <tableColumn id="13" name="From Col" dataDxfId="19"/>
+    <tableColumn id="14" name="To Col" dataDxfId="18"/>
+    <tableColumn id="15" name="Ontology Name" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2037,12 +2037,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_178941011121314" displayName="Table_178941011121314" ref="A19:G24">
   <tableColumns count="7">
     <tableColumn id="1" name="Chemical ID"/>
-    <tableColumn id="12" name="Chemical Owner" dataDxfId="17"/>
-    <tableColumn id="5" name="Chemical Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Chemical Description" dataDxfId="15"/>
-    <tableColumn id="4" name="Pubchem ID" dataDxfId="14"/>
-    <tableColumn id="3" name="SBOL Object Type" dataDxfId="13"/>
-    <tableColumn id="6" name="Molecule Type" dataDxfId="12"/>
+    <tableColumn id="12" name="Chemical Owner" dataDxfId="16"/>
+    <tableColumn id="5" name="Chemical Name" dataDxfId="15"/>
+    <tableColumn id="2" name="Chemical Description" dataDxfId="14"/>
+    <tableColumn id="4" name="Pubchem ID" dataDxfId="13"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="12"/>
+    <tableColumn id="6" name="Molecule Type" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2052,12 +2052,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_1789410111213" displayName="Table_1789410111213" ref="A19:G24">
   <tableColumns count="7">
     <tableColumn id="1" name="Vector ID"/>
-    <tableColumn id="12" name="DNA ID" dataDxfId="11"/>
-    <tableColumn id="5" name="Vector Owner" dataDxfId="10"/>
-    <tableColumn id="2" name="Vector Name" dataDxfId="9"/>
-    <tableColumn id="3" name="SBOL Object Type" dataDxfId="8"/>
-    <tableColumn id="6" name="Molecule Type" dataDxfId="7"/>
-    <tableColumn id="4" name="Role" dataDxfId="6"/>
+    <tableColumn id="12" name="DNA ID" dataDxfId="10"/>
+    <tableColumn id="5" name="Vector Owner" dataDxfId="9"/>
+    <tableColumn id="2" name="Vector Name" dataDxfId="8"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="7"/>
+    <tableColumn id="6" name="Molecule Type" dataDxfId="6"/>
+    <tableColumn id="4" name="Role" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2067,11 +2067,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A19:F24">
   <tableColumns count="6">
     <tableColumn id="1" name="DNA ID"/>
-    <tableColumn id="5" name="DNA Owner" dataDxfId="5"/>
-    <tableColumn id="2" name="DNA Name" dataDxfId="4"/>
-    <tableColumn id="3" name="SBOL Object Type" dataDxfId="3"/>
-    <tableColumn id="6" name="Molecule Type" dataDxfId="2"/>
-    <tableColumn id="7" name="Role" dataDxfId="1"/>
+    <tableColumn id="5" name="DNA Owner" dataDxfId="4"/>
+    <tableColumn id="2" name="DNA Name" dataDxfId="3"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="2"/>
+    <tableColumn id="6" name="Molecule Type" dataDxfId="1"/>
+    <tableColumn id="7" name="Role" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2295,48 +2295,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="49" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3307,202 +3307,202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:J10 L10">
-    <cfRule type="cellIs" dxfId="82" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="109" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="110" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:L9">
-    <cfRule type="cellIs" dxfId="80" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="107" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="108" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:L11">
-    <cfRule type="cellIs" dxfId="78" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="105" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="106" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:L12">
-    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="103" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="104" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:L13">
-    <cfRule type="cellIs" dxfId="74" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="101" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="102" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:L16">
-    <cfRule type="cellIs" dxfId="72" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="87" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="88" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:L17">
-    <cfRule type="cellIs" dxfId="70" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="85" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="86" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:L18">
-    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="84" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 J14:L14">
-    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:L19">
-    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 J20:L20">
-    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:L15">
-    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:L21">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:L2">
-    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:L3">
-    <cfRule type="cellIs" dxfId="54" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:L4">
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:L6">
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:L7">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 J8:L8">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3540,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3631,13 +3631,13 @@
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3953,12 +3953,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
@@ -4630,11 +4630,11 @@
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
